--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Npy-Npy1r.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Npy-Npy1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>Npy</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.68541452000852</v>
+        <v>2.709067</v>
       </c>
       <c r="H2">
-        <v>2.68541452000852</v>
+        <v>8.127200999999999</v>
       </c>
       <c r="I2">
-        <v>0.6952262945816897</v>
+        <v>0.670840434061904</v>
       </c>
       <c r="J2">
-        <v>0.6952262945816897</v>
+        <v>0.670840434061904</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.17233421375003</v>
+        <v>1.252158666666667</v>
       </c>
       <c r="N2">
-        <v>1.17233421375003</v>
+        <v>3.756476</v>
       </c>
       <c r="O2">
-        <v>0.1662008577988409</v>
+        <v>0.1749215513854956</v>
       </c>
       <c r="P2">
-        <v>0.1662008577988409</v>
+        <v>0.1749215513854956</v>
       </c>
       <c r="Q2">
-        <v>3.148203319907103</v>
+        <v>3.392181722630666</v>
       </c>
       <c r="R2">
-        <v>3.148203319907103</v>
+        <v>30.529635503676</v>
       </c>
       <c r="S2">
-        <v>0.1155472065237865</v>
+        <v>0.1173444494582275</v>
       </c>
       <c r="T2">
-        <v>0.1155472065237865</v>
+        <v>0.1173444494582275</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,123 +587,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.68541452000852</v>
+        <v>2.709067</v>
       </c>
       <c r="H3">
-        <v>2.68541452000852</v>
+        <v>8.127200999999999</v>
       </c>
       <c r="I3">
-        <v>0.6952262945816897</v>
+        <v>0.670840434061904</v>
       </c>
       <c r="J3">
-        <v>0.6952262945816897</v>
+        <v>0.670840434061904</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>5.88138517901598</v>
+        <v>0.002279333333333333</v>
       </c>
       <c r="N3">
-        <v>5.88138517901598</v>
+        <v>0.006838</v>
       </c>
       <c r="O3">
-        <v>0.833799142201159</v>
+        <v>0.000318413738933516</v>
       </c>
       <c r="P3">
-        <v>0.833799142201159</v>
+        <v>0.0003184137389335161</v>
       </c>
       <c r="Q3">
-        <v>15.79395715749242</v>
+        <v>0.006174866715333333</v>
       </c>
       <c r="R3">
-        <v>15.79395715749242</v>
+        <v>0.055573800438</v>
       </c>
       <c r="S3">
-        <v>0.5796790880579031</v>
+        <v>0.0002136048108374337</v>
       </c>
       <c r="T3">
-        <v>0.5796790880579031</v>
+        <v>0.0002136048108374337</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.17723357160934</v>
+        <v>2.709067</v>
       </c>
       <c r="H4">
-        <v>1.17723357160934</v>
+        <v>8.127200999999999</v>
       </c>
       <c r="I4">
-        <v>0.3047737054183103</v>
+        <v>0.670840434061904</v>
       </c>
       <c r="J4">
-        <v>0.3047737054183103</v>
+        <v>0.670840434061904</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.17233421375003</v>
+        <v>5.903963333333333</v>
       </c>
       <c r="N4">
-        <v>1.17233421375003</v>
+        <v>17.71189</v>
       </c>
       <c r="O4">
-        <v>0.1662008577988409</v>
+        <v>0.8247600348755709</v>
       </c>
       <c r="P4">
-        <v>0.1662008577988409</v>
+        <v>0.8247600348755709</v>
       </c>
       <c r="Q4">
-        <v>1.380111193572775</v>
+        <v>15.99423223554333</v>
       </c>
       <c r="R4">
-        <v>1.380111193572775</v>
+        <v>143.94809011989</v>
       </c>
       <c r="S4">
-        <v>0.05065365127505442</v>
+        <v>0.553282379792839</v>
       </c>
       <c r="T4">
-        <v>0.05065365127505442</v>
+        <v>0.553282379792839</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.17723357160934</v>
+        <v>1.267349666666667</v>
       </c>
       <c r="H5">
-        <v>1.17723357160934</v>
+        <v>3.802049</v>
       </c>
       <c r="I5">
-        <v>0.3047737054183103</v>
+        <v>0.3138310719132735</v>
       </c>
       <c r="J5">
-        <v>0.3047737054183103</v>
+        <v>0.3138310719132735</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.88138517901598</v>
+        <v>1.252158666666667</v>
       </c>
       <c r="N5">
-        <v>5.88138517901598</v>
+        <v>3.756476</v>
       </c>
       <c r="O5">
-        <v>0.833799142201159</v>
+        <v>0.1749215513854956</v>
       </c>
       <c r="P5">
-        <v>0.833799142201159</v>
+        <v>0.1749215513854956</v>
       </c>
       <c r="Q5">
-        <v>6.923764080303219</v>
+        <v>1.586922868813778</v>
       </c>
       <c r="R5">
-        <v>6.923764080303219</v>
+        <v>14.282305819324</v>
       </c>
       <c r="S5">
-        <v>0.2541200541432558</v>
+        <v>0.05489581797204283</v>
       </c>
       <c r="T5">
-        <v>0.2541200541432558</v>
+        <v>0.05489581797204283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.267349666666667</v>
+      </c>
+      <c r="H6">
+        <v>3.802049</v>
+      </c>
+      <c r="I6">
+        <v>0.3138310719132735</v>
+      </c>
+      <c r="J6">
+        <v>0.3138310719132735</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.002279333333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.006838</v>
+      </c>
+      <c r="O6">
+        <v>0.000318413738933516</v>
+      </c>
+      <c r="P6">
+        <v>0.0003184137389335161</v>
+      </c>
+      <c r="Q6">
+        <v>0.002888712340222223</v>
+      </c>
+      <c r="R6">
+        <v>0.025998411062</v>
+      </c>
+      <c r="S6">
+        <v>9.992812500141857E-05</v>
+      </c>
+      <c r="T6">
+        <v>9.992812500141858E-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.267349666666667</v>
+      </c>
+      <c r="H7">
+        <v>3.802049</v>
+      </c>
+      <c r="I7">
+        <v>0.3138310719132735</v>
+      </c>
+      <c r="J7">
+        <v>0.3138310719132735</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5.903963333333333</v>
+      </c>
+      <c r="N7">
+        <v>17.71189</v>
+      </c>
+      <c r="O7">
+        <v>0.8247600348755709</v>
+      </c>
+      <c r="P7">
+        <v>0.8247600348755709</v>
+      </c>
+      <c r="Q7">
+        <v>7.482385962512224</v>
+      </c>
+      <c r="R7">
+        <v>67.34147366261</v>
+      </c>
+      <c r="S7">
+        <v>0.2588353258162293</v>
+      </c>
+      <c r="T7">
+        <v>0.2588353258162293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.06190133333333334</v>
+      </c>
+      <c r="H8">
+        <v>0.185704</v>
+      </c>
+      <c r="I8">
+        <v>0.01532849402482255</v>
+      </c>
+      <c r="J8">
+        <v>0.01532849402482255</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.252158666666667</v>
+      </c>
+      <c r="N8">
+        <v>3.756476</v>
+      </c>
+      <c r="O8">
+        <v>0.1749215513854956</v>
+      </c>
+      <c r="P8">
+        <v>0.1749215513854956</v>
+      </c>
+      <c r="Q8">
+        <v>0.07751029101155556</v>
+      </c>
+      <c r="R8">
+        <v>0.6975926191040001</v>
+      </c>
+      <c r="S8">
+        <v>0.002681283955225259</v>
+      </c>
+      <c r="T8">
+        <v>0.002681283955225259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.06190133333333334</v>
+      </c>
+      <c r="H9">
+        <v>0.185704</v>
+      </c>
+      <c r="I9">
+        <v>0.01532849402482255</v>
+      </c>
+      <c r="J9">
+        <v>0.01532849402482255</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.002279333333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.006838</v>
+      </c>
+      <c r="O9">
+        <v>0.000318413738933516</v>
+      </c>
+      <c r="P9">
+        <v>0.0003184137389335161</v>
+      </c>
+      <c r="Q9">
+        <v>0.0001410937724444444</v>
+      </c>
+      <c r="R9">
+        <v>0.001269843952</v>
+      </c>
+      <c r="S9">
+        <v>4.880803094663807E-06</v>
+      </c>
+      <c r="T9">
+        <v>4.880803094663808E-06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.06190133333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.185704</v>
+      </c>
+      <c r="I10">
+        <v>0.01532849402482255</v>
+      </c>
+      <c r="J10">
+        <v>0.01532849402482255</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.903963333333333</v>
+      </c>
+      <c r="N10">
+        <v>17.71189</v>
+      </c>
+      <c r="O10">
+        <v>0.8247600348755709</v>
+      </c>
+      <c r="P10">
+        <v>0.8247600348755709</v>
+      </c>
+      <c r="Q10">
+        <v>0.3654632022844445</v>
+      </c>
+      <c r="R10">
+        <v>3.28916882056</v>
+      </c>
+      <c r="S10">
+        <v>0.01264232926650263</v>
+      </c>
+      <c r="T10">
+        <v>0.01264232926650263</v>
       </c>
     </row>
   </sheetData>
